--- a/medicine/Hématologie/NKG2A/NKG2A.xlsx
+++ b/medicine/Hématologie/NKG2A/NKG2A.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">NKG2, aussi connu comme CD159 (pour « cluster de différentiation 159 »), est un récepteur pour les cellules tueuses naturelles du système immunitaire. 
 </t>
@@ -511,12 +523,14 @@
           <t>Types</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Il existe sept types de NKG2 : A, B, C, D, E, F et H. 
 NKG2D est un récepteur activateur présent à la surface des cellules NK.
 NKG2A se dimérise avec CD94 pour fabriquer un récepteur inhibiteur (CD94/NKG2).
-IPH2201 est un anticorps monoclonal ciblé sur NKG2A [5].</t>
+IPH2201 est un anticorps monoclonal ciblé sur NKG2A .</t>
         </is>
       </c>
     </row>
